--- a/links/triathlon.xlsx
+++ b/links/triathlon.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbell\Desktop\mysport\links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89202F38-84C8-4DCF-8291-BA3EB7830B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF54C79-3F80-46F6-AF11-0F470C533AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Course</t>
   </si>
@@ -64,19 +75,69 @@
   </si>
   <si>
     <t>Benjamin</t>
+  </si>
+  <si>
+    <t>d_nat</t>
+  </si>
+  <si>
+    <t>d_cyc</t>
+  </si>
+  <si>
+    <t>d_cap</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Classement</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>S1M</t>
+  </si>
+  <si>
+    <t>rem_cyc</t>
+  </si>
+  <si>
+    <t>rem_cap</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>Pourc</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="5">
@@ -117,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,6 +196,48 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,205 +520,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="14.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="22.88671875" style="2"/>
+    <col min="2" max="2" width="25.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="22.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="19">
+        <v>45557</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2">
+        <v>298</v>
+      </c>
+      <c r="G2" s="2">
+        <v>379</v>
+      </c>
+      <c r="H2" s="17">
+        <f>F2/G2*100</f>
+        <v>78.627968337730863</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J2" s="9">
+        <v>2.6967592592592592E-2</v>
+      </c>
+      <c r="K2" s="14">
+        <f>J2/(I2*10)</f>
+        <v>2.2472993827160493E-3</v>
+      </c>
+      <c r="L2" s="9">
+        <v>2.4074074074074076E-3</v>
+      </c>
+      <c r="M2" s="11">
+        <v>34</v>
+      </c>
+      <c r="N2" s="9">
+        <v>4.0451388888888891E-2</v>
+      </c>
+      <c r="O2" s="15">
+        <f>M2 / (N2 * 24)</f>
+        <v>35.021459227467808</v>
+      </c>
+      <c r="P2" s="16">
+        <v>126</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>1.6203703703703703E-3</v>
+      </c>
+      <c r="R2" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="S2" s="9">
+        <v>3.2511574074074075E-2</v>
+      </c>
+      <c r="T2" s="14">
+        <f>S2/R2</f>
+        <v>4.3348765432098769E-3</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="9">
+        <f>SUM(J2,L2,N2,Q2,S2)</f>
+        <v>0.10395833333333335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="10"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="10"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="10"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="10"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="10"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="10"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/links/triathlon.xlsx
+++ b/links/triathlon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbell\Desktop\mysport\links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF54C79-3F80-46F6-AF11-0F470C533AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7BDB4D-1389-4DD7-9E70-1C387C5C96F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
   <si>
     <t>Course</t>
   </si>
@@ -117,6 +117,123 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>+126</t>
+  </si>
+  <si>
+    <t>Killian</t>
+  </si>
+  <si>
+    <t>Flavie</t>
+  </si>
+  <si>
+    <t>Bergerie (Valérie, Benoit, Cassandre)</t>
+  </si>
+  <si>
+    <t>Coralie</t>
+  </si>
+  <si>
+    <t>Bergerie (Amory, Patricia, Alanis)</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>S3M</t>
+  </si>
+  <si>
+    <t>-102</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>cl_nat</t>
+  </si>
+  <si>
+    <t>cl_cyc</t>
+  </si>
+  <si>
+    <t>S1F</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>S2F</t>
+  </si>
+  <si>
+    <t>+9</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>REX</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>M Team</t>
+  </si>
+  <si>
+    <t>S Team</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Triathlon de Luchon</t>
+  </si>
+  <si>
+    <t>ecart_prem</t>
+  </si>
+  <si>
+    <t>Mixte</t>
+  </si>
+  <si>
+    <t>Bergerie (Patricia, Killian, Coralie)</t>
+  </si>
+  <si>
+    <t>Benoit</t>
+  </si>
+  <si>
+    <t>18-29M</t>
+  </si>
+  <si>
+    <t>50-59M</t>
+  </si>
+  <si>
+    <t>18-29F</t>
+  </si>
+  <si>
+    <t>DNF</t>
+  </si>
+  <si>
+    <t>cl_cap</t>
   </si>
 </sst>
 </file>
@@ -124,9 +241,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,12 +252,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,14 +297,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -174,71 +306,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="21" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,441 +714,1064 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.88671875" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="22.88671875" style="2"/>
+    <col min="1" max="1" width="18.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="22.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="W1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="X1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="Z1" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="11">
         <v>45557</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="12">
         <v>298</v>
       </c>
-      <c r="G2" s="2">
-        <v>379</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="G2" s="12">
+        <v>387</v>
+      </c>
+      <c r="H2" s="14">
         <f>F2/G2*100</f>
-        <v>78.627968337730863</v>
-      </c>
-      <c r="I2" s="2">
+        <v>77.002583979328165</v>
+      </c>
+      <c r="I2" s="12">
         <v>1.2</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="15">
         <v>2.6967592592592592E-2</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="16">
         <f>J2/(I2*10)</f>
         <v>2.2472993827160493E-3</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="14">
+        <v>384</v>
+      </c>
+      <c r="M2" s="17">
         <v>2.4074074074074076E-3</v>
       </c>
-      <c r="M2" s="11">
+      <c r="N2" s="18">
         <v>34</v>
       </c>
-      <c r="N2" s="9">
+      <c r="O2" s="15">
         <v>4.0451388888888891E-2</v>
       </c>
-      <c r="O2" s="15">
-        <f>M2 / (N2 * 24)</f>
+      <c r="P2" s="18">
+        <f>N2 / (O2 * 24)</f>
         <v>35.021459227467808</v>
       </c>
-      <c r="P2" s="16">
-        <v>126</v>
-      </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="14">
+        <v>33</v>
+      </c>
+      <c r="S2" s="17">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="R2" s="11">
+      <c r="T2" s="18">
         <v>7.5</v>
       </c>
-      <c r="S2" s="9">
+      <c r="U2" s="15">
         <v>3.2511574074074075E-2</v>
       </c>
-      <c r="T2" s="14">
-        <f>S2/R2</f>
+      <c r="V2" s="15">
+        <f>U2/T2</f>
         <v>4.3348765432098769E-3</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="W2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="9">
-        <f>SUM(J2,L2,N2,Q2,S2)</f>
+      <c r="X2" s="14">
+        <v>340</v>
+      </c>
+      <c r="Y2" s="17">
+        <f>SUM(J2,M2,O2,S2,U2)</f>
         <v>0.10395833333333335</v>
       </c>
+      <c r="Z2" s="17">
+        <f>ABS(TIMEVALUE("01:35:44")-Y2)</f>
+        <v>3.7476851851851872E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="6"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="10"/>
+    <row r="3" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11">
+        <v>45557</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="12">
+        <v>231</v>
+      </c>
+      <c r="G3" s="12">
+        <v>387</v>
+      </c>
+      <c r="H3" s="14">
+        <f>F3/G3*100</f>
+        <v>59.689922480620147</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1.5983796296296298E-2</v>
+      </c>
+      <c r="K3" s="16">
+        <f>J3/(I3*10)</f>
+        <v>1.3319830246913582E-3</v>
+      </c>
+      <c r="L3" s="14">
+        <v>95</v>
+      </c>
+      <c r="M3" s="17">
+        <v>2.9050925925925928E-3</v>
+      </c>
+      <c r="N3" s="18">
+        <v>34</v>
+      </c>
+      <c r="O3" s="15">
+        <v>4.7974537037037038E-2</v>
+      </c>
+      <c r="P3" s="18">
+        <f>N3 / (O3 * 24)</f>
+        <v>29.529553679131482</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="14">
+        <v>236</v>
+      </c>
+      <c r="S3" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="T3" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="U3" s="15">
+        <v>2.8784722222222222E-2</v>
+      </c>
+      <c r="V3" s="15">
+        <f>U3/T3</f>
+        <v>3.8379629629629627E-3</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="14">
+        <v>262</v>
+      </c>
+      <c r="Y3" s="17">
+        <f>SUM(J3,M3,O3,S3,U3)</f>
+        <v>9.8148148148148151E-2</v>
+      </c>
+      <c r="Z3" s="17">
+        <f>ABS(TIMEVALUE("01:35:44")-Y3)</f>
+        <v>3.1666666666666676E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="6"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="10"/>
+    <row r="4" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45557</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12">
+        <v>27</v>
+      </c>
+      <c r="G4" s="12">
+        <v>27</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H11" si="0">F4/G4*100</f>
+        <v>100</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J4" s="15">
+        <v>2.9155092592592594E-2</v>
+      </c>
+      <c r="K4" s="16">
+        <f t="shared" ref="K4:K11" si="1">J4/(I4*10)</f>
+        <v>2.4295910493827163E-3</v>
+      </c>
+      <c r="L4" s="14">
+        <v>27</v>
+      </c>
+      <c r="M4" s="17">
+        <v>2.2569444444444442E-3</v>
+      </c>
+      <c r="N4" s="18">
+        <v>34</v>
+      </c>
+      <c r="O4" s="15">
+        <v>4.1550925925925929E-2</v>
+      </c>
+      <c r="P4" s="18">
+        <f t="shared" ref="P4:P11" si="2">N4 / (O4 * 24)</f>
+        <v>34.094707520891362</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="14">
+        <v>7</v>
+      </c>
+      <c r="S4" s="17">
+        <v>1.5509259259259259E-3</v>
+      </c>
+      <c r="T4" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="U4" s="15">
+        <v>3.9467592592592596E-2</v>
+      </c>
+      <c r="V4" s="15">
+        <f t="shared" ref="V4:V11" si="3">U4/T4</f>
+        <v>5.2623456790123462E-3</v>
+      </c>
+      <c r="W4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="14">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="17">
+        <f t="shared" ref="Y4:Y9" si="4">SUM(J4,M4,O4,S4,U4)</f>
+        <v>0.11398148148148149</v>
+      </c>
+      <c r="Z4" s="17">
+        <f>ABS(TIMEVALUE("01:39:38")-Y4)</f>
+        <v>4.4791666666666674E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="6"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="10"/>
+    <row r="5" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11">
+        <v>45557</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="12">
+        <v>311</v>
+      </c>
+      <c r="G5" s="12">
+        <v>368</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="0"/>
+        <v>84.510869565217391</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1.4479166666666666E-2</v>
+      </c>
+      <c r="K5" s="16">
+        <f>J5/(I5*10)</f>
+        <v>1.9305555555555556E-3</v>
+      </c>
+      <c r="L5" s="14">
+        <v>307</v>
+      </c>
+      <c r="M5" s="17">
+        <v>4.2361111111111115E-3</v>
+      </c>
+      <c r="N5" s="18">
+        <v>20</v>
+      </c>
+      <c r="O5" s="15">
+        <v>2.75E-2</v>
+      </c>
+      <c r="P5" s="18">
+        <f t="shared" si="2"/>
+        <v>30.303030303030301</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="17">
+        <v>1.8518518518518519E-3</v>
+      </c>
+      <c r="T5" s="18">
+        <v>5</v>
+      </c>
+      <c r="U5" s="15">
+        <v>1.9027777777777779E-2</v>
+      </c>
+      <c r="V5" s="15">
+        <f t="shared" si="3"/>
+        <v>3.8055555555555559E-3</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="14">
+        <v>276</v>
+      </c>
+      <c r="Y5" s="17">
+        <f>SUM(J5,M5,O5,S5,U5)</f>
+        <v>6.7094907407407409E-2</v>
+      </c>
+      <c r="Z5" s="17">
+        <f>ABS(TIMEVALUE("00:57:34")-Y5)</f>
+        <v>2.7118055555555555E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="6"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="10"/>
+    <row r="6" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="11">
+        <v>45557</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="12">
+        <v>327</v>
+      </c>
+      <c r="G6" s="12">
+        <v>368</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>88.858695652173907</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1.480324074074074E-2</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="1"/>
+        <v>1.9737654320987653E-3</v>
+      </c>
+      <c r="L6" s="14">
+        <v>318</v>
+      </c>
+      <c r="M6" s="17">
+        <v>3.2638888888888891E-3</v>
+      </c>
+      <c r="N6" s="18">
+        <v>20</v>
+      </c>
+      <c r="O6" s="15">
+        <v>2.78125E-2</v>
+      </c>
+      <c r="P6" s="18">
+        <f t="shared" si="2"/>
+        <v>29.962546816479403</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="14">
+        <v>299</v>
+      </c>
+      <c r="S6" s="17">
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="T6" s="18">
+        <v>5</v>
+      </c>
+      <c r="U6" s="15">
+        <v>2.2037037037037036E-2</v>
+      </c>
+      <c r="V6" s="15">
+        <f t="shared" si="3"/>
+        <v>4.4074074074074068E-3</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" s="14">
+        <v>339</v>
+      </c>
+      <c r="Y6" s="17">
+        <f t="shared" si="4"/>
+        <v>7.0069444444444448E-2</v>
+      </c>
+      <c r="Z6" s="17">
+        <f t="shared" ref="Z6:Z8" si="5">ABS(TIMEVALUE("00:57:34")-Y6)</f>
+        <v>3.0092592592592594E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="6"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="10"/>
+    <row r="7" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11">
+        <v>45557</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12">
+        <v>23</v>
+      </c>
+      <c r="G7" s="12">
+        <v>29</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
+        <v>79.310344827586206</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1.0868055555555556E-2</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" si="1"/>
+        <v>1.4490740740740742E-3</v>
+      </c>
+      <c r="L7" s="14">
+        <v>13</v>
+      </c>
+      <c r="M7" s="17">
+        <v>2.1990740740740742E-3</v>
+      </c>
+      <c r="N7" s="18">
+        <v>20</v>
+      </c>
+      <c r="O7" s="15">
+        <v>2.9027777777777777E-2</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="2"/>
+        <v>28.708133971291865</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="14">
+        <v>27</v>
+      </c>
+      <c r="S7" s="17">
+        <v>1.7592592592592592E-3</v>
+      </c>
+      <c r="T7" s="18">
+        <v>5</v>
+      </c>
+      <c r="U7" s="15">
+        <v>2.148148148148148E-2</v>
+      </c>
+      <c r="V7" s="15">
+        <f t="shared" si="3"/>
+        <v>4.2962962962962963E-3</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7" s="14">
+        <v>24</v>
+      </c>
+      <c r="Y7" s="17">
+        <f t="shared" si="4"/>
+        <v>6.5335648148148143E-2</v>
+      </c>
+      <c r="Z7" s="17">
+        <f>ABS(TIMEVALUE("01:01:50")-Y7)</f>
+        <v>2.239583333333333E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="6"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="10"/>
+    <row r="8" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11">
+        <v>45557</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="12">
+        <v>336</v>
+      </c>
+      <c r="G8" s="12">
+        <v>368</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>91.304347826086953</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1.5347222222222222E-2</v>
+      </c>
+      <c r="K8" s="16">
+        <f t="shared" si="1"/>
+        <v>2.0462962962962965E-3</v>
+      </c>
+      <c r="L8" s="14">
+        <v>335</v>
+      </c>
+      <c r="M8" s="17">
+        <v>2.8124999999999999E-3</v>
+      </c>
+      <c r="N8" s="18">
+        <v>20</v>
+      </c>
+      <c r="O8" s="15">
+        <v>3.1539351851851853E-2</v>
+      </c>
+      <c r="P8" s="18">
+        <f t="shared" si="2"/>
+        <v>26.422018348623855</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="14">
+        <v>345</v>
+      </c>
+      <c r="S8" s="17">
+        <v>1.3310185185185185E-3</v>
+      </c>
+      <c r="T8" s="18">
+        <v>5</v>
+      </c>
+      <c r="U8" s="15">
+        <v>2.0891203703703703E-2</v>
+      </c>
+      <c r="V8" s="15">
+        <f t="shared" si="3"/>
+        <v>4.178240740740741E-3</v>
+      </c>
+      <c r="W8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="X8" s="14">
+        <v>320</v>
+      </c>
+      <c r="Y8" s="17">
+        <f t="shared" si="4"/>
+        <v>7.1921296296296289E-2</v>
+      </c>
+      <c r="Z8" s="17">
+        <f t="shared" si="5"/>
+        <v>3.1944444444444435E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="6"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="10"/>
+    <row r="9" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="11">
+        <v>45451</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="12">
+        <v>143</v>
+      </c>
+      <c r="G9" s="12">
+        <v>160</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="0"/>
+        <v>89.375</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1.324074074074074E-2</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="1"/>
+        <v>3.3101851851851851E-3</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="18">
+        <v>90</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="P9" s="18">
+        <f t="shared" si="2"/>
+        <v>16.071428571428573</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="18">
+        <v>17</v>
+      </c>
+      <c r="U9" s="15">
+        <v>0.18890046296296295</v>
+      </c>
+      <c r="V9" s="15">
+        <f t="shared" si="3"/>
+        <v>1.111179193899782E-2</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="X9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="17">
+        <f>SUM(J9,M9,O9,S9,U9)</f>
+        <v>0.43547453703703703</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>0.23265046296296296</v>
+      </c>
+      <c r="AA9" s="22"/>
     </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="6"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="10"/>
+    <row r="10" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="11">
+        <v>45451</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12">
+        <v>9</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1.0138888888888888E-2</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="1"/>
+        <v>2.5347222222222221E-3</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="18">
+        <v>47</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0.15307870370370372</v>
+      </c>
+      <c r="P10" s="18">
+        <f t="shared" si="2"/>
+        <v>12.792983517314379</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="U10" s="15">
+        <v>6.1412037037037036E-2</v>
+      </c>
+      <c r="V10" s="15">
+        <f t="shared" si="3"/>
+        <v>7.2249455337690628E-3</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y10" s="17">
+        <f>SUM(J10,M10,O10,S10,U10)</f>
+        <v>0.22462962962962965</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>9.6157407407407414E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="6"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="10"/>
+    <row r="11" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="11">
+        <v>45451</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="12">
+        <v>127</v>
+      </c>
+      <c r="G11" s="12">
+        <v>167</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="0"/>
+        <v>76.047904191616766</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1.2199074074074074E-2</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0497685185185185E-3</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="18">
+        <v>47</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0.11179398148148148</v>
+      </c>
+      <c r="P11" s="18">
+        <f t="shared" si="2"/>
+        <v>17.517341339683195</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="U11" s="15">
+        <v>8.5127314814814808E-2</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0014978213507624E-2</v>
+      </c>
+      <c r="W11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="X11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y11" s="17">
+        <f>SUM(J11,M11,O11,S11,U11)</f>
+        <v>0.20912037037037035</v>
+      </c>
+      <c r="Z11" s="17">
+        <v>8.459490740740741E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="6"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="10"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="6"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="10"/>
+    <row r="12" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="11">
+        <v>45451</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="12">
+        <v>167</v>
+      </c>
+      <c r="H12" s="14">
+        <v>100</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1.2812499999999999E-2</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" ref="K12" si="6">J12/(I12*10)</f>
+        <v>3.2031249999999998E-3</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="18">
+        <v>48</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0.21952546296296296</v>
+      </c>
+      <c r="P12" s="18">
+        <f t="shared" ref="P12" si="7">N12 / (O12 * 24)</f>
+        <v>9.1105604470923183</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="X12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/links/triathlon.xlsx
+++ b/links/triathlon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbell\Desktop\mysport\links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7BDB4D-1389-4DD7-9E70-1C387C5C96F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2751CC90-BC19-422F-99F9-B13ECF4E13A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t>Course</t>
   </si>
@@ -234,6 +234,39 @@
   </si>
   <si>
     <t>cl_cap</t>
+  </si>
+  <si>
+    <t>Bergerie (Patricia, Flavie, Coralie)</t>
+  </si>
+  <si>
+    <t>Triathlon d'Oléron</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>+116</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>FEM</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>MVE</t>
+  </si>
+  <si>
+    <t>+16</t>
+  </si>
+  <si>
+    <t>+24</t>
   </si>
 </sst>
 </file>
@@ -363,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -426,9 +459,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.88671875" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1024,7 +1054,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="14">
-        <f t="shared" ref="H4:H11" si="0">F4/G4*100</f>
+        <f t="shared" ref="H4:H15" si="0">F4/G4*100</f>
         <v>100</v>
       </c>
       <c r="I4" s="12">
@@ -1069,7 +1099,7 @@
         <v>3.9467592592592596E-2</v>
       </c>
       <c r="V4" s="15">
-        <f t="shared" ref="V4:V11" si="3">U4/T4</f>
+        <f t="shared" ref="V4:V15" si="3">U4/T4</f>
         <v>5.2623456790123462E-3</v>
       </c>
       <c r="W4" s="19" t="s">
@@ -1079,7 +1109,7 @@
         <v>27</v>
       </c>
       <c r="Y4" s="17">
-        <f t="shared" ref="Y4:Y9" si="4">SUM(J4,M4,O4,S4,U4)</f>
+        <f t="shared" ref="Y4:Y8" si="4">SUM(J4,M4,O4,S4,U4)</f>
         <v>0.11398148148148149</v>
       </c>
       <c r="Z4" s="17">
@@ -1255,7 +1285,7 @@
         <v>7.0069444444444448E-2</v>
       </c>
       <c r="Z6" s="17">
-        <f t="shared" ref="Z6:Z8" si="5">ABS(TIMEVALUE("00:57:34")-Y6)</f>
+        <f>ABS(TIMEVALUE("00:57:34")-Y6)</f>
         <v>3.0092592592592594E-2</v>
       </c>
     </row>
@@ -1427,7 +1457,7 @@
         <v>7.1921296296296289E-2</v>
       </c>
       <c r="Z8" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="Z6:Z8" si="5">ABS(TIMEVALUE("00:57:34")-Y8)</f>
         <v>3.1944444444444435E-2</v>
       </c>
     </row>
@@ -1470,7 +1500,7 @@
       <c r="L9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="22" t="s">
         <v>42</v>
       </c>
       <c r="N9" s="18">
@@ -1489,7 +1519,7 @@
       <c r="R9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="S9" s="22" t="s">
         <v>42</v>
       </c>
       <c r="T9" s="18">
@@ -1515,7 +1545,7 @@
       <c r="Z9" s="17">
         <v>0.23265046296296296</v>
       </c>
-      <c r="AA9" s="22"/>
+      <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -1556,7 +1586,7 @@
       <c r="L10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="22" t="s">
         <v>42</v>
       </c>
       <c r="N10" s="18">
@@ -1575,7 +1605,7 @@
       <c r="R10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S10" s="23" t="s">
+      <c r="S10" s="22" t="s">
         <v>42</v>
       </c>
       <c r="T10" s="18">
@@ -1641,7 +1671,7 @@
       <c r="L11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="22" t="s">
         <v>42</v>
       </c>
       <c r="N11" s="18">
@@ -1660,7 +1690,7 @@
       <c r="R11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="S11" s="22" t="s">
         <v>42</v>
       </c>
       <c r="T11" s="18">
@@ -1719,13 +1749,13 @@
         <v>1.2812499999999999E-2</v>
       </c>
       <c r="K12" s="15">
-        <f t="shared" ref="K12" si="6">J12/(I12*10)</f>
+        <f t="shared" ref="K12:K15" si="6">J12/(I12*10)</f>
         <v>3.2031249999999998E-3</v>
       </c>
       <c r="L12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="22" t="s">
         <v>42</v>
       </c>
       <c r="N12" s="18">
@@ -1735,7 +1765,7 @@
         <v>0.21952546296296296</v>
       </c>
       <c r="P12" s="18">
-        <f t="shared" ref="P12" si="7">N12 / (O12 * 24)</f>
+        <f t="shared" ref="P12:P15" si="7">N12 / (O12 * 24)</f>
         <v>9.1105604470923183</v>
       </c>
       <c r="Q12" s="21" t="s">
@@ -1744,7 +1774,7 @@
       <c r="R12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="23" t="s">
+      <c r="S12" s="22" t="s">
         <v>42</v>
       </c>
       <c r="T12" s="18">
@@ -1767,6 +1797,264 @@
       </c>
       <c r="Z12" s="17" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="11">
+        <v>45207</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="12">
+        <v>115</v>
+      </c>
+      <c r="G13" s="12">
+        <v>244</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>47.131147540983612</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1.5462962962962963E-2</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" si="6"/>
+        <v>2.0617283950617282E-3</v>
+      </c>
+      <c r="L13" s="14">
+        <v>214</v>
+      </c>
+      <c r="M13" s="17">
+        <v>7.1990740740740739E-3</v>
+      </c>
+      <c r="N13" s="18">
+        <v>20</v>
+      </c>
+      <c r="O13" s="15">
+        <v>2.2847222222222224E-2</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" si="7"/>
+        <v>36.474164133738604</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="14">
+        <v>18</v>
+      </c>
+      <c r="S13" s="17">
+        <v>2.8819444444444444E-3</v>
+      </c>
+      <c r="T13" s="18">
+        <v>5</v>
+      </c>
+      <c r="U13" s="15">
+        <v>2.2650462962962963E-2</v>
+      </c>
+      <c r="V13" s="15">
+        <f t="shared" si="3"/>
+        <v>4.5300925925925925E-3</v>
+      </c>
+      <c r="W13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="X13" s="14">
+        <v>138</v>
+      </c>
+      <c r="Y13" s="17">
+        <f t="shared" ref="Y13:Y15" si="8">SUM(J13,M13,O13,S13,U13)</f>
+        <v>7.104166666666667E-2</v>
+      </c>
+      <c r="Z13" s="17">
+        <f>ABS(TIMEVALUE("01:14:10")-Y13)</f>
+        <v>1.953703703703704E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="11">
+        <v>45207</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="12">
+        <v>119</v>
+      </c>
+      <c r="G14" s="12">
+        <v>244</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>48.770491803278688</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1.207175925925926E-2</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="6"/>
+        <v>1.609567901234568E-3</v>
+      </c>
+      <c r="L14" s="14">
+        <v>52</v>
+      </c>
+      <c r="M14" s="17">
+        <v>8.1018518518518514E-3</v>
+      </c>
+      <c r="N14" s="18">
+        <v>20</v>
+      </c>
+      <c r="O14" s="15">
+        <v>2.5509259259259259E-2</v>
+      </c>
+      <c r="P14" s="18">
+        <f t="shared" si="7"/>
+        <v>32.667876588021777</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="R14" s="14">
+        <v>81</v>
+      </c>
+      <c r="S14" s="17">
+        <v>3.6689814814814814E-3</v>
+      </c>
+      <c r="T14" s="18">
+        <v>5</v>
+      </c>
+      <c r="U14" s="15">
+        <v>2.2199074074074072E-2</v>
+      </c>
+      <c r="V14" s="15">
+        <f t="shared" si="3"/>
+        <v>4.4398148148148148E-3</v>
+      </c>
+      <c r="W14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="X14" s="14">
+        <v>130</v>
+      </c>
+      <c r="Y14" s="17">
+        <f t="shared" si="8"/>
+        <v>7.1550925925925934E-2</v>
+      </c>
+      <c r="Z14" s="17">
+        <f t="shared" ref="Z14:Z15" si="9">ABS(TIMEVALUE("01:14:10")-Y14)</f>
+        <v>2.0046296296296305E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="11">
+        <v>45207</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="12">
+        <v>202</v>
+      </c>
+      <c r="G15" s="12">
+        <v>244</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="0"/>
+        <v>82.786885245901644</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1.758101851851852E-2</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="6"/>
+        <v>2.3441358024691361E-3</v>
+      </c>
+      <c r="L15" s="14">
+        <v>242</v>
+      </c>
+      <c r="M15" s="17">
+        <v>7.0254629629629634E-3</v>
+      </c>
+      <c r="N15" s="18">
+        <v>20</v>
+      </c>
+      <c r="O15" s="15">
+        <v>3.215277777777778E-2</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" si="7"/>
+        <v>25.91792656587473</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" s="14">
+        <v>226</v>
+      </c>
+      <c r="S15" s="17">
+        <v>2.7199074074074074E-3</v>
+      </c>
+      <c r="T15" s="18">
+        <v>5</v>
+      </c>
+      <c r="U15" s="15">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="V15" s="15">
+        <f t="shared" si="3"/>
+        <v>4.6874999999999998E-3</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="X15" s="14">
+        <v>159</v>
+      </c>
+      <c r="Y15" s="17">
+        <f t="shared" si="8"/>
+        <v>8.2916666666666666E-2</v>
+      </c>
+      <c r="Z15" s="17">
+        <f t="shared" si="9"/>
+        <v>3.1412037037037037E-2</v>
       </c>
     </row>
   </sheetData>
